--- a/reports/xlsx/4-krok-po-kroku.xlsx
+++ b/reports/xlsx/4-krok-po-kroku.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
+  <workbookProtection workbookPassword="DD92" lockStructure="1" lockWindows="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
@@ -133,37 +134,15 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="25"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <sz val="11"/>
@@ -196,7 +175,7 @@
     <tableColumn id="10" name="gear"/>
     <tableColumn id="11" name="carb"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -485,9 +464,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="2"/>
-    </row>
     <row r="5">
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -495,16 +471,13 @@
     </row>
     <row r="7">
       <c r="B7" s="3" t="str">
-        <f>=HYPERLINK("#'Dane źródłowe'!A1", "1. DANE ŹRÓDŁOWE")</f>
+        <f>=HYPERLINK("#'Dane źródłowe'!C1", "1. DANE ŹRÓDŁOWE")</f>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="str">
-        <f>=HYPERLINK("#Regresja!A1", "2. REGRESJA")</f>
-      </c>
-    </row>
-    <row r="NA">
-      <c r="E-2147483648" s="2"/>
+        <f>=HYPERLINK("#Regresja!C4", "2. REGRESJA")</f>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,7 +1669,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <f>A2 + A3</f>
+        <f>ROUND(SQRT(A2*A3),2)</f>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1730,7 +1713,7 @@
         <v>11.9970836085866</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.00000000000249554940784986</v>
+        <v>0.00000000000249554940784988</v>
       </c>
     </row>
     <row r="6">
@@ -1764,7 +1747,7 @@
         <v>-3.01672314171665</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.00551469675927075</v>
+        <v>0.00551469675927073</v>
       </c>
     </row>
     <row r="8">
@@ -1778,7 +1761,7 @@
         <v>1.6837130989254</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-3.6105431922064</v>
+        <v>-3.61054319220641</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0.00122796443168376</v>
@@ -1789,19 +1772,20 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.150103119934501</v>
+        <v>0.1501031199345</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1.30022313728889</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.115444123112194</v>
+        <v>0.115444123112193</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.908947423661782</v>
+        <v>0.908947423661783</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="8038" insertRows="1" sheet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -2971,13 +2955,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>A2&gt;20.09</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B33">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="B2:D33">
+    <cfRule type="dataBar" priority="2">
       <dataBar showValue="1">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2988,6 +2967,11 @@
           <x14:id>{F7189283-14F7-4DE0-9601-54DE9DB40000}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A2&gt;20.090625</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3006,7 +2990,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B33</xm:sqref>
+          <xm:sqref>B2:D33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
